--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Re5c8167f7d394a40"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R6a3bd202104448c2"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R6a3bd202104448c2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R05b6385bdad6425a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R05b6385bdad6425a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Ra4e91b7b817a4c01"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Ra4e91b7b817a4c01"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Re041bf6a93034e40"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -27,7 +27,7 @@
     <x:font/>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Re041bf6a93034e40"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Raa7ae3b5c5984532"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Raa7ae3b5c5984532"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rd6088400f86a4f20"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rd6088400f86a4f20"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R51d51654a51d4fad"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R51d51654a51d4fad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R55430b9fb41a492d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R55430b9fb41a492d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R7699ca39aa2242ec"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R7699ca39aa2242ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R73e71f1e581f4c1e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R73e71f1e581f4c1e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R831333a99f3d4324"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R831333a99f3d4324"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R2148859b9dde4f9e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R2148859b9dde4f9e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rc5c058fcebe74027"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rc5c058fcebe74027"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rb52875fa223f41d4"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rb52875fa223f41d4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R39a2b4ae2b3341ea"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R39a2b4ae2b3341ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R73c65fdcf6a34ecb"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R73c65fdcf6a34ecb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R48eb96ac193b410d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R48eb96ac193b410d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R758175bb1b3244c6"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R758175bb1b3244c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R4595ceee6c114d23"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R4595ceee6c114d23"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rd5bbcf213ca04da3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rd5bbcf213ca04da3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R2d343c6426074b7d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R2d343c6426074b7d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rc9112926104e4e77"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rc9112926104e4e77"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Re0318d60b6d844ed"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Re0318d60b6d844ed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R9d39dbcc39b14c4c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R9d39dbcc39b14c4c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R70b21e1e59db4d2a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R70b21e1e59db4d2a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rd81afe3e120147a5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rd81afe3e120147a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R197dcad47491499f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R197dcad47491499f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R94279925cfeb4382"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R94279925cfeb4382"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R1be78d99384848c5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R1be78d99384848c5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rf008fb7cacae477f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rf008fb7cacae477f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R3e80aca4711548eb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R3e80aca4711548eb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R2e692d98417544ea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R2e692d98417544ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R2f981a7dada94ed1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R2f981a7dada94ed1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rd585cac317ab4d47"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rd585cac317ab4d47"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R5e01eafc56664592"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R5e01eafc56664592"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rd844816c772c4202"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rd844816c772c4202"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Re1fcec74593c41dc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Re1fcec74593c41dc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R165752ef1393471c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R165752ef1393471c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rc1a3e857e68a4da9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rc1a3e857e68a4da9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rbfaafe9613974583"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rbfaafe9613974583"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R60b633f9cefc4c97"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R60b633f9cefc4c97"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R57e38df591ae4698"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R57e38df591ae4698"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rd60f1fdee2024960"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rd60f1fdee2024960"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R3d0c5918b2b04412"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/13_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R3d0c5918b2b04412"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R20e198a557a94b0f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
